--- a/IECD_Correspondences/EXIOBASEv3_200Products_To_163Products.xlsx
+++ b/IECD_Correspondences/EXIOBASEv3_200Products_To_163Products.xlsx
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,6 +1195,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>256</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
